--- a/Kopie von SP_Projektplan_v5.xlsx
+++ b/Kopie von SP_Projektplan_v5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mautouma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teamplan" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
   <si>
     <t>Name</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Versionsverwaltung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBVERSION installieren und einrichten </t>
   </si>
   <si>
     <t>Nr</t>
@@ -580,9 +577,6 @@
     <t>MAX Geplanter Aufwand für diesen Bereich: 165</t>
   </si>
   <si>
-    <t>Server+ Eclipse einrichten</t>
-  </si>
-  <si>
     <t>SPÄTESTES ENDE</t>
   </si>
   <si>
@@ -593,13 +587,43 @@
   </si>
   <si>
     <t xml:space="preserve">Beschreibung der Klassen </t>
+  </si>
+  <si>
+    <t>Wir haben freie Wahl.</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Pro GUI-Entwurf jeweils 1 Tab oder alle GUI-Entwürfe in einem Tab?</t>
+  </si>
+  <si>
+    <t>Je nachdem, welche Variante in der Präsentation verständlicher ist.</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Passwort und Benutzername?</t>
+  </si>
+  <si>
+    <t>Schulte kontaktieren, ansonsten über github</t>
+  </si>
+  <si>
+    <t>Recherche über Libraries und Vorgehensweise erstellen</t>
+  </si>
+  <si>
+    <t>Server+ Eclipse+Github einrichten</t>
+  </si>
+  <si>
+    <t>Excel Datei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +690,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +775,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -989,11 +1037,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1073,6 +1123,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,18 +1140,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1429,14 +1490,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
@@ -1531,58 +1592,58 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AE58"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="4.875" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="19.75" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="46"/>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-    </row>
-    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:28" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1597,31 +1658,31 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="K2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O2">
         <v>39</v>
@@ -1666,18 +1727,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G3" s="18">
         <v>1</v>
@@ -1710,12 +1771,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="17">
         <v>4.5</v>
@@ -1741,7 +1802,7 @@
         <v>3.5</v>
       </c>
       <c r="N4" s="49">
-        <f t="shared" ref="N4:N45" si="2">SUM(O4:AB4)</f>
+        <f t="shared" ref="N4:N47" si="2">SUM(O4:AB4)</f>
         <v>4.5</v>
       </c>
       <c r="O4" s="17">
@@ -1760,13 +1821,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D5" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="17">
         <v>5</v>
@@ -1799,13 +1860,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D6" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="45">
         <v>8</v>
@@ -1850,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L7" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1864,15 +1925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C8" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G8" s="17">
         <v>2</v>
@@ -1908,12 +1969,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D9" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
@@ -1949,16 +2010,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G10" s="45">
         <v>2</v>
@@ -1978,9 +2039,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K11" s="20">
         <f>SUM(K3:K10)</f>
@@ -1995,18 +2056,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="18">
         <v>1</v>
@@ -2039,9 +2100,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="17">
         <v>2</v>
@@ -2074,7 +2135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -2088,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -2105,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L16" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2119,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L17" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2129,15 +2190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G18" s="17">
         <v>3</v>
@@ -2170,12 +2231,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G19" s="17">
         <v>0.5</v>
@@ -2205,9 +2266,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D20" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -2242,9 +2303,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K21" s="19">
         <f>SUM(K12:K20)</f>
@@ -2259,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:19" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -2267,10 +2328,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G22" s="18">
         <v>0.5</v>
@@ -2303,12 +2364,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G23" s="17">
         <v>0</v>
@@ -2341,12 +2402,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D24" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G24" s="17">
         <v>0</v>
@@ -2382,12 +2443,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G25" s="45">
         <v>1</v>
@@ -2420,12 +2481,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -2461,12 +2522,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G27" s="45">
         <v>1</v>
@@ -2502,40 +2563,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="59" t="s">
-        <v>156</v>
+      <c r="D28" s="62" t="s">
+        <v>155</v>
       </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="56">
+      <c r="F28" s="66">
         <v>43061</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="I28" s="21">
+        <v>4</v>
+      </c>
       <c r="J28" s="21"/>
       <c r="K28" s="45">
         <v>15</v>
       </c>
       <c r="L28" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N28" s="49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="U28" s="17">
+        <v>3</v>
+      </c>
+      <c r="V28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="19">
         <f>SUM(K22:K28)</f>
@@ -2550,17 +2619,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19" s="18" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" s="18" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="60">
         <v>43052</v>
       </c>
       <c r="K30" s="18">
@@ -2579,12 +2648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="59" t="s">
+    <row r="31" spans="2:22" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D31" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="56">
+      <c r="F31" s="61">
         <v>43052</v>
       </c>
       <c r="G31" s="21"/>
@@ -2607,11 +2676,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:19" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="30">
+    <row r="32" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="58">
         <v>43054</v>
       </c>
       <c r="K32" s="45">
@@ -2630,11 +2699,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="61" t="s">
+    <row r="33" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="58">
         <v>43084</v>
       </c>
       <c r="K33" s="45">
@@ -2653,9 +2722,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K34" s="19">
         <f>SUM(K30:K33)</f>
@@ -2670,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:29" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>27</v>
       </c>
@@ -2678,10 +2747,10 @@
         <v>28</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G35" s="18">
         <v>2.5</v>
@@ -2714,12 +2783,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D36" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J36" s="17">
         <v>2</v>
@@ -2743,12 +2812,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D37" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J37" s="17">
         <v>3</v>
@@ -2772,11 +2841,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="52" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="30">
@@ -2798,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="L39" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2812,9 +2881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K40" s="19">
         <f>SUM(K35:K39)</f>
@@ -2829,465 +2898,487 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="57">
-        <v>43049</v>
-      </c>
-      <c r="K41" s="18">
-        <v>5</v>
-      </c>
-      <c r="L41" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="17">
-        <f>K41-L41</f>
-        <v>5</v>
-      </c>
-      <c r="N41" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="61" t="s">
-        <v>173</v>
+      <c r="D41"/>
+      <c r="F41" s="51"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="48"/>
+    </row>
+    <row r="42" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="52" t="s">
+        <v>184</v>
       </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="58">
+      <c r="F42" s="59">
         <v>43053</v>
       </c>
       <c r="G42" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H42" s="17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I42" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" s="45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L42" s="49">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="M42" s="17">
         <f>K42-L42</f>
-        <v>4</v>
+        <v>-13</v>
       </c>
       <c r="N42" s="49">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="T42" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="19">
+      <c r="U42" s="17">
+        <v>9</v>
+      </c>
+      <c r="V42" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" s="17">
         <v>15</v>
       </c>
-      <c r="L43" s="50"/>
+      <c r="L43" s="49"/>
       <c r="N43" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+    <row r="44" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="57">
+      <c r="D44" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="30">
         <v>43084</v>
       </c>
-      <c r="K44" s="18">
+      <c r="L44" s="49"/>
+      <c r="N44" s="49"/>
+    </row>
+    <row r="45" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="58">
+        <v>43084</v>
+      </c>
+      <c r="K45" s="17">
         <v>180</v>
       </c>
-      <c r="L44" s="48"/>
-      <c r="M44" s="17">
-        <f>K44-L44</f>
+      <c r="L45" s="49"/>
+      <c r="M45" s="17">
+        <f>K45-L45</f>
         <v>180</v>
       </c>
-      <c r="N44" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="L45" s="50"/>
       <c r="N45" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15">
-        <f>SUM(K44:K45,K40,K34,K29,K21,K11,K43)</f>
+    <row r="46" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D46"/>
+      <c r="F46" s="30"/>
+      <c r="L46" s="49"/>
+      <c r="N46" s="49"/>
+    </row>
+    <row r="47" spans="2:29" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L47" s="50"/>
+      <c r="N47" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15">
+        <f>SUM(K45:K47,K40,K34,K29,K21,K11,K43)</f>
         <v>576</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L48" s="15">
         <f>SUM(L3:L41)</f>
-        <v>137</v>
-      </c>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15">
-        <f t="shared" ref="O46:AC46" si="4">SUM(O3:O41)</f>
+        <v>141</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15">
+        <f>SUM(O3:O41)</f>
         <v>10.5</v>
       </c>
-      <c r="P46" s="15">
-        <f t="shared" si="4"/>
+      <c r="P48" s="15">
+        <f>SUM(P3:P41)</f>
         <v>18</v>
       </c>
-      <c r="Q46" s="15">
+      <c r="Q48" s="15">
         <f>SUM(Q3:Q41)</f>
         <v>26</v>
       </c>
-      <c r="R46" s="15">
+      <c r="R48" s="15">
+        <f>SUM(R3:R41)</f>
+        <v>43.5</v>
+      </c>
+      <c r="S48" s="15">
+        <f>SUM(S3:S41)</f>
+        <v>39</v>
+      </c>
+      <c r="T48" s="15">
+        <f>SUM(T3:T47)</f>
+        <v>6</v>
+      </c>
+      <c r="U48" s="15">
+        <f>SUM(U3:U47)</f>
+        <v>12</v>
+      </c>
+      <c r="V48" s="15">
+        <f>SUM(V3:V47)</f>
+        <v>14</v>
+      </c>
+      <c r="W48" s="15">
+        <f>SUM(W3:W47)</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="15">
+        <f>SUM(X3:X47)</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="15">
+        <f t="shared" ref="Y48:AA48" si="4">SUM(Y3:Y47)</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="15">
         <f t="shared" si="4"/>
-        <v>43.5</v>
-      </c>
-      <c r="S46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="15">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="T46" s="15">
-        <f>SUM(T3:T45)</f>
-        <v>6</v>
-      </c>
-      <c r="U46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="K47" t="str">
-        <f>600-K46 &amp; " (Zeitpuffer)"</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="15">
+        <f t="shared" ref="U48:AC48" si="5">SUM(AB3:AB41)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="K49" t="str">
+        <f>600-K48 &amp; " (Zeitpuffer)"</f>
         <v>24 (Zeitpuffer)</v>
       </c>
-      <c r="L47" t="str">
-        <f>600-L46 &amp; " (Rest IST Std)"</f>
-        <v>463 (Rest IST Std)</v>
-      </c>
-      <c r="M47">
-        <f>SUM(M3:M44)</f>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="12:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="AD53" s="16" t="s">
+      <c r="L49" t="str">
+        <f>600-L48 &amp; " (Rest IST Std)"</f>
+        <v>459 (Rest IST Std)</v>
+      </c>
+      <c r="M49">
+        <f>SUM(M3:M45)</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="11:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="AD55" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE55" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AE53" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="L54" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M54" s="10" t="s">
+    </row>
+    <row r="56" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="L56" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M56" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10">
+      <c r="N56" s="10"/>
+      <c r="O56" s="10">
         <v>3</v>
       </c>
-      <c r="P54" s="10">
+      <c r="P56" s="10">
         <v>5.5</v>
       </c>
-      <c r="Q54" s="10">
+      <c r="Q56" s="10">
         <v>5</v>
       </c>
-      <c r="R54" s="10">
+      <c r="R56" s="10">
         <v>10</v>
       </c>
-      <c r="S54" s="10">
+      <c r="S56" s="10">
         <v>12.5</v>
       </c>
-      <c r="T54" s="10">
+      <c r="T56" s="10">
         <v>3</v>
       </c>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54">
-        <f>SUM(O54:AC54)</f>
-        <v>39</v>
-      </c>
-      <c r="AE54">
-        <f>150-AD54</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="L55" s="11"/>
-      <c r="M55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="P55" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q55" s="11">
-        <v>7</v>
-      </c>
-      <c r="R55" s="11">
-        <v>11</v>
-      </c>
-      <c r="S55" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="T55" s="11">
+      <c r="U56" s="10">
         <v>3</v>
       </c>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55">
-        <f>SUM(O55:AC55)</f>
-        <v>36</v>
-      </c>
-      <c r="AE55">
-        <f t="shared" ref="AE55:AE57" si="5">150-AD55</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="L56" s="11"/>
-      <c r="M56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="P56" s="11">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="11">
-        <v>7</v>
-      </c>
-      <c r="R56" s="11">
-        <v>12</v>
-      </c>
-      <c r="S56" s="11">
-        <v>11.5</v>
-      </c>
-      <c r="T56" s="11">
-        <v>0</v>
-      </c>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
+      <c r="V56" s="10">
+        <v>3</v>
+      </c>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
       <c r="AD56">
         <f>SUM(O56:AC56)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="5"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="L57" s="12"/>
-      <c r="M57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12">
+        <f>150-AD56</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="L57" s="11"/>
+      <c r="M57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11">
         <v>2.5</v>
       </c>
-      <c r="P57" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="Q57" s="12">
+      <c r="P57" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="11">
         <v>7</v>
       </c>
-      <c r="R57" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="S57" s="12">
+      <c r="R57" s="11">
+        <v>11</v>
+      </c>
+      <c r="S57" s="11">
         <v>7.5</v>
       </c>
-      <c r="T57" s="12">
-        <v>0</v>
-      </c>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
+      <c r="T57" s="11">
+        <v>3</v>
+      </c>
+      <c r="U57" s="11">
+        <v>3</v>
+      </c>
+      <c r="V57" s="11">
+        <v>5</v>
+      </c>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
       <c r="AD57">
         <f>SUM(O57:AC57)</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="12:31" x14ac:dyDescent="0.25">
-      <c r="L58" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="M58" s="54"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="15">
-        <f>SUM(O54:O57)</f>
+        <f t="shared" ref="AE57:AE59" si="6">150-AD57</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="L58" s="11"/>
+      <c r="M58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="P58" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>7</v>
+      </c>
+      <c r="R58" s="11">
+        <v>12</v>
+      </c>
+      <c r="S58" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="T58" s="11">
+        <v>0</v>
+      </c>
+      <c r="U58" s="11">
+        <v>3</v>
+      </c>
+      <c r="V58" s="11">
+        <v>3</v>
+      </c>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58">
+        <f>SUM(O58:AC58)</f>
+        <v>44</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="L59" s="12"/>
+      <c r="M59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="P59" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>7</v>
+      </c>
+      <c r="R59" s="12">
         <v>10.5</v>
       </c>
-      <c r="P58" s="15">
-        <f>SUM(P54:P57)</f>
+      <c r="S59" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="T59" s="12">
+        <v>0</v>
+      </c>
+      <c r="U59" s="12">
+        <v>3</v>
+      </c>
+      <c r="V59" s="12">
+        <v>3</v>
+      </c>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59">
+        <f>SUM(O59:AC59)</f>
+        <v>36</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="11:31" x14ac:dyDescent="0.3">
+      <c r="L60" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="M60" s="56"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="15">
+        <f>SUM(O56:O59)</f>
+        <v>10.5</v>
+      </c>
+      <c r="P60" s="15">
+        <f>SUM(P56:P59)</f>
         <v>18</v>
       </c>
-      <c r="Q58" s="15">
-        <f>SUM(Q54:Q57)</f>
+      <c r="Q60" s="15">
+        <f>SUM(Q56:Q59)</f>
         <v>26</v>
       </c>
-      <c r="R58" s="15">
-        <f t="shared" ref="R58:AC58" si="6">SUM(R54:R57)</f>
+      <c r="R60" s="15">
+        <f t="shared" ref="R60:AC60" si="7">SUM(R56:R59)</f>
         <v>43.5</v>
       </c>
-      <c r="S58" s="15">
-        <f t="shared" si="6"/>
+      <c r="S60" s="15">
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="T58" s="15">
-        <f t="shared" si="6"/>
+      <c r="T60" s="15">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="U58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="15">
-        <f>SUM(O58:AC58)</f>
-        <v>143</v>
+      <c r="U60" s="15">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V60" s="15">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="W60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="15">
+        <f>SUM(O60:AC60)</f>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3295,9 +3386,9 @@
     <mergeCell ref="O1:Y1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L60:M60"/>
   </mergeCells>
-  <conditionalFormatting sqref="M47:N47">
+  <conditionalFormatting sqref="M49:N49">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3305,7 +3396,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE54:AE57">
+  <conditionalFormatting sqref="AE56:AE59">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3325,71 +3416,71 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.375" customWidth="1"/>
-    <col min="3" max="3" width="83.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="7.875" customWidth="1"/>
-    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="83.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="J1" s="57"/>
+      <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <v>42647</v>
@@ -3404,27 +3495,27 @@
         <v>42653</v>
       </c>
       <c r="K2" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
         <v>77</v>
       </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1">
         <v>42647</v>
@@ -3439,27 +3530,27 @@
         <v>42653</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1">
         <v>42647</v>
@@ -3471,24 +3562,24 @@
         <v>42653</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1">
         <v>42647</v>
@@ -3503,27 +3594,27 @@
         <v>42653</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1">
         <v>42647</v>
@@ -3535,24 +3626,27 @@
         <v>42653</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1">
         <v>42647</v>
@@ -3567,27 +3661,27 @@
         <v>42653</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="1">
         <v>42647</v>
@@ -3602,27 +3696,27 @@
         <v>42653</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1">
         <v>42653</v>
@@ -3637,27 +3731,27 @@
         <v>42653</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1">
         <v>42653</v>
@@ -3672,27 +3766,27 @@
         <v>42653</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1">
         <v>42657</v>
@@ -3707,33 +3801,33 @@
         <v>42660</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1">
         <v>42657</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="1">
         <v>42660</v>
@@ -3742,24 +3836,24 @@
         <v>42660</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
         <v>42657</v>
@@ -3774,53 +3868,53 @@
         <v>42660</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1">
         <v>42657</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="1">
         <v>42664</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1">
         <v>42657</v>
@@ -3832,21 +3926,24 @@
         <v>42674</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
         <v>165</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
         <v>42668</v>
@@ -3858,7 +3955,74 @@
         <v>42674</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42676</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>42681</v>
+      </c>
+      <c r="J17" s="1">
+        <v>42681</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="1">
+        <v>42668</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>42681</v>
+      </c>
+      <c r="J18" s="1">
+        <v>42681</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3882,174 +4046,174 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>601</v>
       </c>
       <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>602</v>
       </c>
       <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>607</v>
       </c>
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>603</v>
       </c>
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>119</v>
-      </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>604</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>606</v>
       </c>
       <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>605</v>
       </c>
       <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Kopie von SP_Projektplan_v5.xlsx
+++ b/Kopie von SP_Projektplan_v5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mautouma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Teamplan" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -618,12 +618,19 @@
   <si>
     <t>Excel Datei</t>
   </si>
+  <si>
+    <t>Kontrolle des Testprozesse</t>
+  </si>
+  <si>
+    <t>14.11.2017 
+abgeschlossen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,8 +711,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,8 +801,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1036,14 +1055,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1125,6 +1160,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1140,25 +1191,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="14" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" xfId="4"/>
+    <xf numFmtId="14" fontId="11" fillId="15" borderId="23" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
@@ -1490,14 +1532,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
@@ -1594,56 +1636,56 @@
   </sheetPr>
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="83.375" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="4.875" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="19.75" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="G1" s="55" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G1" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="46"/>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-    </row>
-    <row r="2" spans="1:28" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+    </row>
+    <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1727,7 +1769,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="17" t="s">
         <v>91</v>
       </c>
@@ -1821,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="45" t="s">
         <v>157</v>
       </c>
@@ -1860,7 +1902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="45" t="s">
         <v>159</v>
       </c>
@@ -1911,7 +1953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L7" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1925,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17" t="s">
         <v>49</v>
       </c>
@@ -1969,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="17" t="s">
         <v>85</v>
       </c>
@@ -2010,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="17" t="s">
         <v>50</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>166</v>
       </c>
@@ -2056,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
@@ -2100,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="17" t="s">
         <v>160</v>
       </c>
@@ -2135,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -2149,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -2166,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L16" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2180,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L17" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2190,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
         <v>143</v>
       </c>
@@ -2231,7 +2273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="17" t="s">
         <v>144</v>
       </c>
@@ -2266,7 +2308,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="2:22" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="21" t="s">
         <v>161</v>
       </c>
@@ -2303,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:22" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:23" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
         <v>167</v>
       </c>
@@ -2320,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
@@ -2364,7 +2406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="17" t="s">
         <v>146</v>
       </c>
@@ -2402,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D24" s="17" t="s">
         <v>147</v>
       </c>
@@ -2443,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="17" t="s">
         <v>162</v>
       </c>
@@ -2481,7 +2523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="17" t="s">
         <v>148</v>
       </c>
@@ -2522,7 +2564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="17" t="s">
         <v>154</v>
       </c>
@@ -2563,37 +2605,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="56" t="s">
         <v>155</v>
       </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="66">
-        <v>43061</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1</v>
+      </c>
       <c r="I28" s="21">
-        <v>4</v>
-      </c>
-      <c r="J28" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="21">
+        <v>1</v>
+      </c>
       <c r="K28" s="45">
         <v>15</v>
       </c>
       <c r="L28" s="49">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M28" s="17">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N28" s="49">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U28" s="17">
         <v>3</v>
@@ -2601,8 +2649,11 @@
       <c r="V28" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W28" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>168</v>
       </c>
@@ -2619,18 +2670,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" s="18" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" s="18" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="60">
-        <v>43052</v>
+      <c r="F30" s="54">
+        <v>42706</v>
       </c>
       <c r="K30" s="18">
         <v>8</v>
@@ -2648,13 +2699,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D31" s="64" t="s">
+    <row r="31" spans="2:23" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="58" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="61">
-        <v>43052</v>
+      <c r="F31" s="55">
+        <v>42706</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -2676,12 +2727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="65" t="s">
+    <row r="32" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="58">
-        <v>43054</v>
+      <c r="F32" s="53">
+        <v>42706</v>
       </c>
       <c r="K32" s="45">
         <v>10</v>
@@ -2699,12 +2750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="65" t="s">
+    <row r="33" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="58">
-        <v>43084</v>
+      <c r="F33" s="53">
+        <v>42745</v>
       </c>
       <c r="K33" s="45">
         <v>15</v>
@@ -2722,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:29" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>169</v>
       </c>
@@ -2739,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:29" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>27</v>
       </c>
@@ -2783,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D36" s="17" t="s">
         <v>151</v>
       </c>
@@ -2812,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D37" s="17" t="s">
         <v>150</v>
       </c>
@@ -2841,15 +2892,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="30">
-        <v>43069</v>
+      <c r="F38" s="67">
+        <v>43073</v>
       </c>
       <c r="K38" s="45">
         <v>25</v>
@@ -2867,27 +2918,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="67">
+        <v>42724</v>
+      </c>
+      <c r="K39" s="45">
+        <v>9</v>
+      </c>
       <c r="L39" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M39" s="17">
         <f>K39-L39</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N39" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:29" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="19" t="s">
         <v>168</v>
       </c>
       <c r="K40" s="19">
         <f>SUM(K35:K39)</f>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L40" s="50">
         <f t="shared" si="1"/>
@@ -2898,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:29" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:29" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>31</v>
       </c>
@@ -2911,40 +2971,40 @@
       <c r="M41" s="17"/>
       <c r="N41" s="48"/>
     </row>
-    <row r="42" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="D42" s="52" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="59">
-        <v>43053</v>
+      <c r="F42" s="70" t="s">
+        <v>187</v>
       </c>
       <c r="G42" s="17">
         <v>9</v>
       </c>
       <c r="H42" s="17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I42" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42" s="45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K42" s="45">
         <v>15</v>
       </c>
       <c r="L42" s="49">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M42" s="17">
         <f>K42-L42</f>
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="N42" s="49">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="T42" s="17">
         <v>6</v>
@@ -2955,8 +3015,11 @@
       <c r="V42" s="17">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W42" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>170</v>
       </c>
@@ -2969,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
@@ -2985,12 +3048,12 @@
       <c r="L44" s="49"/>
       <c r="N44" s="49"/>
     </row>
-    <row r="45" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="65" t="s">
+    <row r="45" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="58">
-        <v>43084</v>
+      <c r="F45" s="69">
+        <v>42745</v>
       </c>
       <c r="K45" s="17">
         <v>180</v>
@@ -3005,13 +3068,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D46"/>
       <c r="F46" s="30"/>
       <c r="L46" s="49"/>
       <c r="N46" s="49"/>
     </row>
-    <row r="47" spans="2:29" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:29" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="19" t="s">
         <v>171</v>
       </c>
@@ -3021,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D48" s="15" t="s">
         <v>51</v>
       </c>
@@ -3033,11 +3096,11 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15">
         <f>SUM(K45:K47,K40,K34,K29,K21,K11,K43)</f>
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L48" s="15">
         <f>SUM(L3:L41)</f>
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
@@ -3075,7 +3138,7 @@
       </c>
       <c r="W48" s="15">
         <f>SUM(W3:W47)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X48" s="15">
         <f>SUM(X3:X47)</f>
@@ -3094,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="15">
-        <f t="shared" ref="U48:AC48" si="5">SUM(AB3:AB41)</f>
+        <f t="shared" ref="AB48:AC48" si="5">SUM(AB3:AB41)</f>
         <v>0</v>
       </c>
       <c r="AC48" s="15">
@@ -3102,21 +3165,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="11:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:31" x14ac:dyDescent="0.25">
       <c r="K49" t="str">
         <f>600-K48 &amp; " (Zeitpuffer)"</f>
-        <v>24 (Zeitpuffer)</v>
+        <v>15 (Zeitpuffer)</v>
       </c>
       <c r="L49" t="str">
         <f>600-L48 &amp; " (Rest IST Std)"</f>
-        <v>459 (Rest IST Std)</v>
+        <v>450 (Rest IST Std)</v>
       </c>
       <c r="M49">
         <f>SUM(M3:M45)</f>
-        <v>411</v>
-      </c>
-    </row>
-    <row r="55" spans="11:31" ht="72" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="11:31" ht="75" x14ac:dyDescent="0.25">
       <c r="AD55" s="16" t="s">
         <v>99</v>
       </c>
@@ -3124,7 +3187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="11:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="11:31" x14ac:dyDescent="0.25">
       <c r="L56" s="9" t="s">
         <v>46</v>
       </c>
@@ -3156,7 +3219,9 @@
       <c r="V56" s="10">
         <v>3</v>
       </c>
-      <c r="W56" s="10"/>
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
@@ -3165,14 +3230,14 @@
       <c r="AC56" s="10"/>
       <c r="AD56">
         <f>SUM(O56:AC56)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE56">
         <f>150-AD56</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="11:31" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="11:31" x14ac:dyDescent="0.25">
       <c r="L57" s="11"/>
       <c r="M57" s="11" t="s">
         <v>6</v>
@@ -3202,7 +3267,9 @@
       <c r="V57" s="11">
         <v>5</v>
       </c>
-      <c r="W57" s="11"/>
+      <c r="W57" s="11">
+        <v>4</v>
+      </c>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
@@ -3211,14 +3278,14 @@
       <c r="AC57" s="11"/>
       <c r="AD57">
         <f>SUM(O57:AC57)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AE57">
         <f t="shared" ref="AE57:AE59" si="6">150-AD57</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="11:31" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="11:31" x14ac:dyDescent="0.25">
       <c r="L58" s="11"/>
       <c r="M58" s="11" t="s">
         <v>7</v>
@@ -3248,7 +3315,9 @@
       <c r="V58" s="11">
         <v>3</v>
       </c>
-      <c r="W58" s="11"/>
+      <c r="W58" s="11">
+        <v>9</v>
+      </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
@@ -3257,14 +3326,14 @@
       <c r="AC58" s="11"/>
       <c r="AD58">
         <f>SUM(O58:AC58)</f>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE58">
         <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="11:31" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="11:31" x14ac:dyDescent="0.25">
       <c r="L59" s="12"/>
       <c r="M59" s="12" t="s">
         <v>8</v>
@@ -3294,7 +3363,9 @@
       <c r="V59" s="12">
         <v>3</v>
       </c>
-      <c r="W59" s="12"/>
+      <c r="W59" s="12">
+        <v>4</v>
+      </c>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
@@ -3303,18 +3374,18 @@
       <c r="AC59" s="12"/>
       <c r="AD59">
         <f>SUM(O59:AC59)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AE59">
         <f t="shared" si="6"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="11:31" x14ac:dyDescent="0.3">
-      <c r="L60" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="L60" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="M60" s="56"/>
+      <c r="M60" s="64"/>
       <c r="N60" s="47"/>
       <c r="O60" s="15">
         <f>SUM(O56:O59)</f>
@@ -3350,7 +3421,7 @@
       </c>
       <c r="W60" s="15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X60" s="15">
         <f t="shared" si="7"/>
@@ -3378,7 +3449,7 @@
       </c>
       <c r="AD60" s="15">
         <f>SUM(O60:AC60)</f>
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3422,17 +3493,17 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="3" max="3" width="83.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.375" customWidth="1"/>
+    <col min="3" max="3" width="83.375" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -3445,20 +3516,20 @@
       <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="57"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
@@ -3466,7 +3537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3501,7 +3572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3536,7 +3607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3565,7 +3636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3600,7 +3671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3632,7 +3703,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3667,7 +3738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3702,7 +3773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3737,7 +3808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3772,7 +3843,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3807,7 +3878,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3842,7 +3913,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>108</v>
       </c>
@@ -3874,7 +3945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -3903,7 +3974,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -3932,7 +4003,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>164</v>
       </c>
@@ -3961,7 +4032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>177</v>
       </c>
@@ -3993,7 +4064,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>180</v>
       </c>
@@ -4046,17 +4117,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
@@ -4076,7 +4147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>601</v>
       </c>
@@ -4096,7 +4167,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>602</v>
       </c>
@@ -4116,7 +4187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>607</v>
       </c>
@@ -4136,7 +4207,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>603</v>
       </c>
@@ -4156,7 +4227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>604</v>
       </c>
@@ -4176,7 +4247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>606</v>
       </c>
@@ -4196,7 +4267,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>605</v>
       </c>

--- a/Kopie von SP_Projektplan_v5.xlsx
+++ b/Kopie von SP_Projektplan_v5.xlsx
@@ -630,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,20 +706,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,11 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1071,14 +1059,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1160,20 +1147,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="14" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" xfId="3"/>
+    <xf numFmtId="14" fontId="10" fillId="14" borderId="23" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1191,18 +1175,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" xfId="4"/>
-    <xf numFmtId="14" fontId="11" fillId="15" borderId="23" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="8" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="13" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Eingabe" xfId="4" builtinId="20"/>
+  <cellStyles count="4">
+    <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1636,8 +1614,8 @@
   </sheetPr>
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y58" sqref="Y58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,31 +1637,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="62" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="46"/>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
     </row>
     <row r="2" spans="1:28" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2609,11 +2587,11 @@
       <c r="C28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="53" t="s">
         <v>155</v>
       </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="54" t="s">
         <v>174</v>
       </c>
       <c r="G28" s="21">
@@ -2677,10 +2655,10 @@
       <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="66">
         <v>42706</v>
       </c>
       <c r="K30" s="18">
@@ -2700,11 +2678,11 @@
       </c>
     </row>
     <row r="31" spans="2:23" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="55">
+      <c r="F31" s="54">
         <v>42706</v>
       </c>
       <c r="G31" s="21"/>
@@ -2728,10 +2706,10 @@
       </c>
     </row>
     <row r="32" spans="2:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="56">
         <v>42706</v>
       </c>
       <c r="K32" s="45">
@@ -2751,10 +2729,10 @@
       </c>
     </row>
     <row r="33" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="56">
         <v>42745</v>
       </c>
       <c r="K33" s="45">
@@ -2896,10 +2874,10 @@
       <c r="C38" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="56">
         <v>43073</v>
       </c>
       <c r="K38" s="45">
@@ -2919,10 +2897,10 @@
       </c>
     </row>
     <row r="39" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="F39" s="67">
+      <c r="F39" s="56">
         <v>42724</v>
       </c>
       <c r="K39" s="45">
@@ -2976,7 +2954,7 @@
         <v>184</v>
       </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="70" t="s">
+      <c r="F42" s="59" t="s">
         <v>187</v>
       </c>
       <c r="G42" s="17">
@@ -3049,10 +3027,10 @@
       <c r="N44" s="49"/>
     </row>
     <row r="45" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="58">
         <v>42745</v>
       </c>
       <c r="K45" s="17">
@@ -3382,10 +3360,10 @@
       </c>
     </row>
     <row r="60" spans="11:31" x14ac:dyDescent="0.25">
-      <c r="L60" s="64" t="s">
+      <c r="L60" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="M60" s="64"/>
+      <c r="M60" s="63"/>
       <c r="N60" s="47"/>
       <c r="O60" s="15">
         <f>SUM(O56:O59)</f>
@@ -3516,20 +3494,20 @@
       <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="65"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="6" t="s">
         <v>40</v>
       </c>
